--- a/file/zc_interface.xlsx
+++ b/file/zc_interface.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5057007-D407-43C5-87E0-371B036A9545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48AF94D-7342-4749-9107-643E524C4CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3225" windowWidth="23835" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="3225" windowWidth="23835" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="task" sheetId="1" r:id="rId2"/>
     <sheet name="user" sheetId="3" r:id="rId3"/>
+    <sheet name="list" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +139,42 @@
   </si>
   <si>
     <t>邀请好友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ztestin.com/ranking/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'rank': '20202', 't': 'pc', 'rands': '0.27720951347462597'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'rank': '201952', 't': 'pc', 'rands': '0.27720951347462597'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'rank': '20201', 't': 'pc', 'rands': '0.27720951347462597'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'rank': '201951', 't': 'pc', 'rands': '0.27720951347462597'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新一期榜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一期榜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上上期榜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上上上期榜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -217,6 +254,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -502,7 +551,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,7 +616,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +704,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -695,10 +744,12 @@
         <v>12</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -708,8 +759,11 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -719,8 +773,11 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -730,8 +787,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -741,8 +801,11 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -751,10 +814,129 @@
       </c>
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ABFE16-530E-44BC-ADA1-8F4EFFDD639A}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FE5F89D9-400F-41F9-A98B-C7A7CEA21E0B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{55FA9150-C47B-4251-A341-013151A69ECD}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{78B6334C-1140-4606-A7AC-6D536375D3C2}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D8DD0931-8551-48B8-B225-400F4FEAFDD6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>